--- a/Теория вероятности/ЛР_1/курящие люди по возрастам. нормальное распределение.xlsx
+++ b/Теория вероятности/ЛР_1/курящие люди по возрастам. нормальное распределение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\Магистратура\Теория вероятности\ЛР_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C4895-92EC-43B5-A29B-3EB7F89A05EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA5E120-FBF2-4400-877E-FE5377676649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1AD95FCE-00CD-4F7C-8274-B6A6472A7DFC}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
